--- a/app/static/files/output.xlsx
+++ b/app/static/files/output.xlsx
@@ -17575,8 +17575,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FC1483584FA1346AC511C81214FF1F3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b3aed7858268981cc06302c5d0730d0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="afcb7607-2e65-4e7c-b7e6-1008afece165" xmlns:ns3="3758dce1-194a-4df8-9bb5-9d5f2f65257a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e758172845eb8af90915604bb17c3cf3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FC1483584FA1346AC511C81214FF1F3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1be9fc8098d9bc8c60e6e190eff0c858">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="afcb7607-2e65-4e7c-b7e6-1008afece165" xmlns:ns3="3758dce1-194a-4df8-9bb5-9d5f2f65257a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e73c63851cf84d0df26de0a1bdbb364c" ns2:_="" ns3:_="">
     <xsd:import namespace="afcb7607-2e65-4e7c-b7e6-1008afece165"/>
     <xsd:import namespace="3758dce1-194a-4df8-9bb5-9d5f2f65257a"/>
     <xsd:element name="properties">
@@ -17601,6 +17601,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -17680,6 +17681,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -17833,7 +17839,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A70C2DBF-CF6F-4961-8421-EA27C66AA2FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B08C6B8-0FE4-4FD0-9D00-75439F2B8B14}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
